--- a/00硬件/00车型/鑫盛e华/鑫盛e华参数配置表.xlsx
+++ b/00硬件/00车型/鑫盛e华/鑫盛e华参数配置表.xlsx
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长*款*高（mm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车身结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,6 +312,10 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长*宽*高（mm）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,16 +402,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -716,7 +716,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -740,46 +740,46 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6">
         <v>770</v>
@@ -793,368 +793,356 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10">
         <v>3.6</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10">
         <v>1865</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
@@ -1169,6 +1157,18 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00硬件/00车型/鑫盛e华/鑫盛e华参数配置表.xlsx
+++ b/00硬件/00车型/鑫盛e华/鑫盛e华参数配置表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>型号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,14 @@
   </si>
   <si>
     <t>长*宽*高（mm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑫盛e华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,15 +410,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -726,449 +740,460 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
-        <v>770</v>
-      </c>
-      <c r="C6" s="6">
-        <v>820</v>
-      </c>
-      <c r="D6" s="6">
-        <v>870</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>770</v>
+      </c>
+      <c r="C7" s="6">
+        <v>820</v>
+      </c>
+      <c r="D7" s="6">
+        <v>870</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1865</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1865</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="A14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="9" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="B8:D8"/>
+  <mergeCells count="27">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00硬件/00车型/鑫盛e华/鑫盛e华参数配置表.xlsx
+++ b/00硬件/00车型/鑫盛e华/鑫盛e华参数配置表.xlsx
@@ -410,21 +410,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,7 +730,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -740,14 +740,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -775,31 +775,31 @@
       <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
@@ -819,61 +819,61 @@
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="12">
         <v>3.6</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="12">
         <v>1865</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
@@ -915,29 +915,29 @@
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
@@ -971,11 +971,11 @@
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
@@ -1023,97 +1023,97 @@
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
@@ -1130,12 +1130,12 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
@@ -1167,19 +1167,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B26:D26"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -1194,6 +1181,19 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="A30:D30"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
